--- a/SunriseLabWeb/Content/images/LabAvailibility_Format.xlsx
+++ b/SunriseLabWeb/Content/images/LabAvailibility_Format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardik Projects\Sunrise_NewLab\SunriseLabWeb\Content\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardik Files\----------------------------------WORK---------\16-02-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33C32C0-969A-4091-9721-7EA50746BCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9635BDB-74ED-41C8-A80A-07BA820B9DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FA0BA61D-0729-4998-A5B2-02679023B6B9}"/>
   </bookViews>
@@ -30,9 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Ref No / Certi No</t>
-  </si>
-  <si>
     <t>HIYU0040831</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>HIYU0040835</t>
+  </si>
+  <si>
+    <t>Ref No / Certi No / Supplier Ref No</t>
   </si>
 </sst>
 </file>
@@ -403,42 +403,42 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
